--- a/PCAcombined_predicted_factors_matrix_11.xlsx
+++ b/PCAcombined_predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.05401027257570898</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1296975904784821</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07534997460982597</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02129559733939931</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.01938077147701837</v>
+        <v>0.1297123027617092</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.2071134881687259</v>
       </c>
       <c r="B3" t="n">
-        <v>0.137252809436691</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08132306920862983</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04632717500775922</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.03248807862711189</v>
+        <v>0.1372683787483363</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>0.9190625778849579</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6396766304930454</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.3158723351112205</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.1831806032956208</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.1161210810681422</v>
+        <v>-0.6397491923943501</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.5381886116106344</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3377045264513802</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1869374969282318</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0980384498997604</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.04925484816355039</v>
+        <v>0.337742834060807</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>-0.6606268276209989</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2938983702339292</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.03559417856652075</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.008289174821872127</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01529981444359948</v>
+        <v>-0.2939317086795105</v>
       </c>
     </row>
     <row r="7">
@@ -540,16 +486,7 @@
         <v>0.1563817597001417</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1244337395281958</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.043026058859904</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.01122785075120236</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.0009886398498369117</v>
+        <v>0.1244478547049852</v>
       </c>
     </row>
     <row r="8">
@@ -557,16 +494,7 @@
         <v>0.01556130359946931</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02334945506791314</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07234530815534637</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04326192347872428</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.020466196635124</v>
+        <v>0.02335210372001926</v>
       </c>
     </row>
     <row r="9">
@@ -574,16 +502,7 @@
         <v>0.2522882170317564</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1249795290070859</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03584255674674877</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.007301041355471462</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.004568014347764821</v>
+        <v>0.1249937060956597</v>
       </c>
     </row>
     <row r="10">
@@ -591,16 +510,7 @@
         <v>-0.05679192801912222</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.02516062408738426</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.008456085860704251</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.00931792966087162</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.007736103058809896</v>
+        <v>-0.0251634781899644</v>
       </c>
     </row>
     <row r="11">
@@ -608,16 +518,7 @@
         <v>-0.1034327526870535</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.02194784574699049</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.01695155491979385</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.005960963052615694</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.001677035481196323</v>
+        <v>-0.02195033540714246</v>
       </c>
     </row>
     <row r="12">
@@ -625,16 +526,7 @@
         <v>0.03200281093632498</v>
       </c>
       <c r="B12" t="n">
-        <v>0.009723118912330887</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.0004310030504701269</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.0004114433659515235</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0003997942598122666</v>
+        <v>0.009724221857102243</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_11.xlsx
+++ b/PCAcombined_predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.1297123027617092</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.1498670465663541</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1424483585107177</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.1372683787483363</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.09553509985998782</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06479288707832093</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>-0.6397491923943501</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.4510756029497011</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.3108295614955895</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.337742834060807</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.2243754471299785</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1518626054210119</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +510,12 @@
       <c r="B6" t="n">
         <v>-0.2939317086795105</v>
       </c>
+      <c r="C6" t="n">
+        <v>-0.1508257063617379</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.09089120662018281</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +524,12 @@
       <c r="B7" t="n">
         <v>0.1244478547049852</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.08935030123367792</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06147677562730822</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +538,12 @@
       <c r="B8" t="n">
         <v>0.02335210372001926</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.02097862302107517</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01298775116773568</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +552,12 @@
       <c r="B9" t="n">
         <v>0.1249937060956597</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.0700097049510997</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.04115691605985411</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +566,12 @@
       <c r="B10" t="n">
         <v>-0.0251634781899644</v>
       </c>
+      <c r="C10" t="n">
+        <v>-0.003328234616859933</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.002466174407918343</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +580,12 @@
       <c r="B11" t="n">
         <v>-0.02195033540714246</v>
       </c>
+      <c r="C11" t="n">
+        <v>-0.005594415308375195</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.000941128893405988</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -527,6 +593,12 @@
       </c>
       <c r="B12" t="n">
         <v>0.009724221857102243</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.001121368360802872</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0005738056729837894</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_11.xlsx
+++ b/PCAcombined_predicted_factors_matrix_11.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\04. Models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED6F7FB-53F9-4B65-B1C4-90D9A08246AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-49890" yWindow="-3675" windowWidth="29385" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +52,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,185 +376,1730 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AV12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.05401027257570898</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>5.4010272575708979E-2</v>
+      </c>
+      <c r="B2">
         <v>0.1297123027617092</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.1498670465663541</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1424483585107177</v>
+      <c r="C2">
+        <v>0.15080793192221811</v>
+      </c>
+      <c r="D2">
+        <v>0.14556158041322659</v>
+      </c>
+      <c r="E2">
+        <v>0.13028930900070579</v>
+      </c>
+      <c r="F2">
+        <v>0.1100953677763693</v>
+      </c>
+      <c r="G2">
+        <v>8.7175073678807807E-2</v>
+      </c>
+      <c r="H2">
+        <v>6.2716178947945317E-2</v>
+      </c>
+      <c r="I2">
+        <v>3.745094453124094E-2</v>
+      </c>
+      <c r="J2">
+        <v>1.185872002160953E-2</v>
+      </c>
+      <c r="K2">
+        <v>-1.3740074250250259E-2</v>
+      </c>
+      <c r="L2">
+        <v>-3.9131048810785399E-2</v>
+      </c>
+      <c r="M2">
+        <v>-6.4172253991835265E-2</v>
+      </c>
+      <c r="N2">
+        <v>-8.8771551476911958E-2</v>
+      </c>
+      <c r="O2">
+        <v>-0.11287101156662679</v>
+      </c>
+      <c r="P2">
+        <v>-0.13643608799927379</v>
+      </c>
+      <c r="Q2">
+        <v>-0.1594481158893358</v>
+      </c>
+      <c r="R2">
+        <v>-0.18189913322803031</v>
+      </c>
+      <c r="S2">
+        <v>-0.20378832381690939</v>
+      </c>
+      <c r="T2">
+        <v>-0.2251195865172215</v>
+      </c>
+      <c r="U2">
+        <v>-0.2458998828122968</v>
+      </c>
+      <c r="V2">
+        <v>-0.26613811943616361</v>
+      </c>
+      <c r="W2">
+        <v>-0.28584439704262671</v>
+      </c>
+      <c r="X2">
+        <v>-0.30502950811429902</v>
+      </c>
+      <c r="Y2">
+        <v>-0.32370460380871818</v>
+      </c>
+      <c r="Z2">
+        <v>-0.3418809747877069</v>
+      </c>
+      <c r="AA2">
+        <v>-0.35956990858692539</v>
+      </c>
+      <c r="AB2">
+        <v>-0.37678259812039122</v>
+      </c>
+      <c r="AC2">
+        <v>-0.39353008415461888</v>
+      </c>
+      <c r="AD2">
+        <v>-0.40982322020431011</v>
+      </c>
+      <c r="AE2">
+        <v>-0.42567265211607891</v>
+      </c>
+      <c r="AF2">
+        <v>-0.44108880718698079</v>
+      </c>
+      <c r="AG2">
+        <v>-0.45608188940313549</v>
+      </c>
+      <c r="AH2">
+        <v>-0.47066187854991082</v>
+      </c>
+      <c r="AI2">
+        <v>-0.4848385317240686</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.49862138629567138</v>
+      </c>
+      <c r="AK2">
+        <v>-0.5120197637092937</v>
+      </c>
+      <c r="AL2">
+        <v>-0.52504277373839592</v>
+      </c>
+      <c r="AM2">
+        <v>-0.53769931895262124</v>
+      </c>
+      <c r="AN2">
+        <v>-0.54999809925196963</v>
+      </c>
+      <c r="AO2">
+        <v>-0.56194761638176827</v>
+      </c>
+      <c r="AP2">
+        <v>-0.57355617838008333</v>
+      </c>
+      <c r="AQ2">
+        <v>-0.58483190393244977</v>
+      </c>
+      <c r="AR2">
+        <v>-0.59578272662280496</v>
+      </c>
+      <c r="AS2">
+        <v>-0.6064163990775826</v>
+      </c>
+      <c r="AT2">
+        <v>-0.61674049700444344</v>
+      </c>
+      <c r="AU2">
+        <v>-0.62676242312930008</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.2071134881687259</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1372683787483363</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09553509985998782</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06479288707832093</v>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.20711348816872591</v>
+      </c>
+      <c r="B3">
+        <v>0.13726837874833631</v>
+      </c>
+      <c r="C3">
+        <v>9.5407672837808336E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.4371064690427887E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.4239626992632952E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.1902436282130048E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.4822204284341769E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.1245571164418591E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.9999580922502539E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.0302471457150559E-2</v>
+      </c>
+      <c r="K3">
+        <v>2.1631138383042071E-2</v>
+      </c>
+      <c r="L3">
+        <v>2.3633537895187601E-2</v>
+      </c>
+      <c r="M3">
+        <v>2.6071425242830841E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.8782812639279488E-2</v>
+      </c>
+      <c r="O3">
+        <v>3.1657175055563452E-2</v>
+      </c>
+      <c r="P3">
+        <v>3.4618939070243333E-2</v>
+      </c>
+      <c r="Q3">
+        <v>3.7616400014138761E-2</v>
+      </c>
+      <c r="R3">
+        <v>4.0614229627254313E-2</v>
+      </c>
+      <c r="S3">
+        <v>4.358837957646805E-2</v>
+      </c>
+      <c r="T3">
+        <v>4.6522596260807098E-2</v>
+      </c>
+      <c r="U3">
+        <v>4.9406026647430087E-2</v>
+      </c>
+      <c r="V3">
+        <v>5.2231567167914217E-2</v>
+      </c>
+      <c r="W3">
+        <v>5.4994721196422361E-2</v>
+      </c>
+      <c r="X3">
+        <v>5.7692806101308898E-2</v>
+      </c>
+      <c r="Y3">
+        <v>6.0324401458824277E-2</v>
+      </c>
+      <c r="Z3">
+        <v>6.2888964175374915E-2</v>
+      </c>
+      <c r="AA3">
+        <v>6.5386559459851654E-2</v>
+      </c>
+      <c r="AB3">
+        <v>6.7817672416561003E-2</v>
+      </c>
+      <c r="AC3">
+        <v>7.0183075877103859E-2</v>
+      </c>
+      <c r="AD3">
+        <v>7.2483737550901969E-2</v>
+      </c>
+      <c r="AE3">
+        <v>7.4720754722551241E-2</v>
+      </c>
+      <c r="AF3">
+        <v>7.6895308286953429E-2</v>
+      </c>
+      <c r="AG3">
+        <v>7.9008630385028727E-2</v>
+      </c>
+      <c r="AH3">
+        <v>8.1061981621970369E-2</v>
+      </c>
+      <c r="AI3">
+        <v>8.305663504832371E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>8.4993864921311904E-2</v>
+      </c>
+      <c r="AK3">
+        <v>8.6874938849805183E-2</v>
+      </c>
+      <c r="AL3">
+        <v>8.8701112337365537E-2</v>
+      </c>
+      <c r="AM3">
+        <v>9.0473625026655888E-2</v>
+      </c>
+      <c r="AN3">
+        <v>9.2193698151863762E-2</v>
+      </c>
+      <c r="AO3">
+        <v>9.3862532849290428E-2</v>
+      </c>
+      <c r="AP3">
+        <v>9.5481309077592488E-2</v>
+      </c>
+      <c r="AQ3">
+        <v>9.705118497096793E-2</v>
+      </c>
+      <c r="AR3">
+        <v>9.8573296499437815E-2</v>
+      </c>
+      <c r="AS3">
+        <v>0.10004875734650991</v>
+      </c>
+      <c r="AT3">
+        <v>0.1014786589402397</v>
+      </c>
+      <c r="AU3">
+        <v>0.1028640705919809</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.9190625778849579</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.6397491923943501</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.4510756029497011</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.3108295614955895</v>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.91906257788495793</v>
+      </c>
+      <c r="B4">
+        <v>-0.63974919239435013</v>
+      </c>
+      <c r="C4">
+        <v>-0.45089332220875072</v>
+      </c>
+      <c r="D4">
+        <v>-0.31030148539079733</v>
+      </c>
+      <c r="E4">
+        <v>-0.21168180839132511</v>
+      </c>
+      <c r="F4">
+        <v>-0.14355386243206669</v>
+      </c>
+      <c r="G4">
+        <v>-9.6734901880872609E-2</v>
+      </c>
+      <c r="H4">
+        <v>-6.4639432473224429E-2</v>
+      </c>
+      <c r="I4">
+        <v>-4.2677039005116678E-2</v>
+      </c>
+      <c r="J4">
+        <v>-2.767718028055131E-2</v>
+      </c>
+      <c r="K4">
+        <v>-1.7457403569732001E-2</v>
+      </c>
+      <c r="L4">
+        <v>-1.0517574193499061E-2</v>
+      </c>
+      <c r="M4">
+        <v>-5.8273053301708304E-3</v>
+      </c>
+      <c r="N4">
+        <v>-2.67916528314702E-3</v>
+      </c>
+      <c r="O4">
+        <v>-5.8759005792239868E-4</v>
+      </c>
+      <c r="P4">
+        <v>7.8063338111651333E-4</v>
+      </c>
+      <c r="Q4">
+        <v>1.6541342631706691E-3</v>
+      </c>
+      <c r="R4">
+        <v>2.189762955545088E-3</v>
+      </c>
+      <c r="S4">
+        <v>2.4951122670271528E-3</v>
+      </c>
+      <c r="T4">
+        <v>2.6439751033265368E-3</v>
+      </c>
+      <c r="U4">
+        <v>2.6869523206587741E-3</v>
+      </c>
+      <c r="V4">
+        <v>2.658731748833955E-3</v>
+      </c>
+      <c r="W4">
+        <v>2.583082787100822E-3</v>
+      </c>
+      <c r="X4">
+        <v>2.4762834738122521E-3</v>
+      </c>
+      <c r="Y4">
+        <v>2.349472010351461E-3</v>
+      </c>
+      <c r="Z4">
+        <v>2.210260317906543E-3</v>
+      </c>
+      <c r="AA4">
+        <v>2.0638412442422838E-3</v>
+      </c>
+      <c r="AB4">
+        <v>1.913748332461608E-3</v>
+      </c>
+      <c r="AC4">
+        <v>1.762377182212202E-3</v>
+      </c>
+      <c r="AD4">
+        <v>1.611343212325799E-3</v>
+      </c>
+      <c r="AE4">
+        <v>1.461727155876093E-3</v>
+      </c>
+      <c r="AF4">
+        <v>1.31424351082756E-3</v>
+      </c>
+      <c r="AG4">
+        <v>1.1693561174641971E-3</v>
+      </c>
+      <c r="AH4">
+        <v>1.0273574504968421E-3</v>
+      </c>
+      <c r="AI4">
+        <v>8.8842300987445136E-4</v>
+      </c>
+      <c r="AJ4">
+        <v>7.5264862331390903E-4</v>
+      </c>
+      <c r="AK4">
+        <v>6.2007602274835366E-4</v>
+      </c>
+      <c r="AL4">
+        <v>4.9071037487373481E-4</v>
+      </c>
+      <c r="AM4">
+        <v>3.645322915298236E-4</v>
+      </c>
+      <c r="AN4">
+        <v>2.415060532893331E-4</v>
+      </c>
+      <c r="AO4">
+        <v>1.215852357508004E-4</v>
+      </c>
+      <c r="AP4">
+        <v>4.7165547821127057E-6</v>
+      </c>
+      <c r="AQ4">
+        <v>-1.09157509252408E-4</v>
+      </c>
+      <c r="AR4">
+        <v>-2.2009692410559061E-4</v>
+      </c>
+      <c r="AS4">
+        <v>-3.2816289153158039E-4</v>
+      </c>
+      <c r="AT4">
+        <v>-4.3341702575252513E-4</v>
+      </c>
+      <c r="AU4">
+        <v>-5.3592080055642958E-4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.5381886116106344</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.337742834060807</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2243754471299785</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1518626054210119</v>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.53818861161063436</v>
+      </c>
+      <c r="B5">
+        <v>0.33774283406080702</v>
+      </c>
+      <c r="C5">
+        <v>0.22434504899117069</v>
+      </c>
+      <c r="D5">
+        <v>0.15178449463267429</v>
+      </c>
+      <c r="E5">
+        <v>0.1043214558713224</v>
+      </c>
+      <c r="F5">
+        <v>7.2612914959266278E-2</v>
+      </c>
+      <c r="G5">
+        <v>5.1083886479270993E-2</v>
+      </c>
+      <c r="H5">
+        <v>3.6273220168925563E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.5961275711124498E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.869153866984841E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.349328576088661E-2</v>
+      </c>
+      <c r="L5">
+        <v>9.7128323910432215E-3</v>
+      </c>
+      <c r="M5">
+        <v>6.9069483574569204E-3</v>
+      </c>
+      <c r="N5">
+        <v>4.7737081959909888E-3</v>
+      </c>
+      <c r="O5">
+        <v>3.1067885264785449E-3</v>
+      </c>
+      <c r="P5">
+        <v>1.7648794627527411E-3</v>
+      </c>
+      <c r="Q5">
+        <v>6.5103671492742446E-4</v>
+      </c>
+      <c r="R5">
+        <v>-3.0133706849262899E-4</v>
+      </c>
+      <c r="S5">
+        <v>-1.138047902146111E-3</v>
+      </c>
+      <c r="T5">
+        <v>-1.8906416620219451E-3</v>
+      </c>
+      <c r="U5">
+        <v>-2.5808764793335179E-3</v>
+      </c>
+      <c r="V5">
+        <v>-3.2237892130796862E-3</v>
+      </c>
+      <c r="W5">
+        <v>-3.8297997319347889E-3</v>
+      </c>
+      <c r="X5">
+        <v>-4.4061556873909004E-3</v>
+      </c>
+      <c r="Y5">
+        <v>-4.9579247778876066E-3</v>
+      </c>
+      <c r="Z5">
+        <v>-5.4886763234688546E-3</v>
+      </c>
+      <c r="AA5">
+        <v>-6.0009494354829381E-3</v>
+      </c>
+      <c r="AB5">
+        <v>-6.496574572270767E-3</v>
+      </c>
+      <c r="AC5">
+        <v>-6.9768943611302073E-3</v>
+      </c>
+      <c r="AD5">
+        <v>-7.4429152128598604E-3</v>
+      </c>
+      <c r="AE5">
+        <v>-7.8954113951868951E-3</v>
+      </c>
+      <c r="AF5">
+        <v>-8.3349964553955241E-3</v>
+      </c>
+      <c r="AG5">
+        <v>-8.7621722248020627E-3</v>
+      </c>
+      <c r="AH5">
+        <v>-9.1773624358031693E-3</v>
+      </c>
+      <c r="AI5">
+        <v>-9.5809357810993662E-3</v>
+      </c>
+      <c r="AJ5">
+        <v>-9.9732217317425771E-3</v>
+      </c>
+      <c r="AK5">
+        <v>-1.035452139088856E-2</v>
+      </c>
+      <c r="AL5">
+        <v>-1.0725114945711239E-2</v>
+      </c>
+      <c r="AM5">
+        <v>-1.1085266789292321E-2</v>
+      </c>
+      <c r="AN5">
+        <v>-1.143522904730588E-2</v>
+      </c>
+      <c r="AO5">
+        <v>-1.177524401308718E-2</v>
+      </c>
+      <c r="AP5">
+        <v>-1.21055458360114E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>-1.24263616992821E-2</v>
+      </c>
+      <c r="AR5">
+        <v>-1.273791264866516E-2</v>
+      </c>
+      <c r="AS5">
+        <v>-1.3040414182597829E-2</v>
+      </c>
+      <c r="AT5">
+        <v>-1.333407667915692E-2</v>
+      </c>
+      <c r="AU5">
+        <v>-1.36191057113804E-2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-0.6606268276209989</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.2939317086795105</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.1508257063617379</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.09089120662018281</v>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-0.66062682762099889</v>
+      </c>
+      <c r="B6">
+        <v>-0.29393170867951052</v>
+      </c>
+      <c r="C6">
+        <v>-0.15078958064586609</v>
+      </c>
+      <c r="D6">
+        <v>-9.0788794510512916E-2</v>
+      </c>
+      <c r="E6">
+        <v>-5.812479999233499E-2</v>
+      </c>
+      <c r="F6">
+        <v>-3.7857120125562603E-2</v>
+      </c>
+      <c r="G6">
+        <v>-2.4574266124491709E-2</v>
+      </c>
+      <c r="H6">
+        <v>-1.568352588137642E-2</v>
+      </c>
+      <c r="I6">
+        <v>-9.6881295917134718E-3</v>
+      </c>
+      <c r="J6">
+        <v>-5.6390242849856369E-3</v>
+      </c>
+      <c r="K6">
+        <v>-2.9093054843455399E-3</v>
+      </c>
+      <c r="L6">
+        <v>-1.0775409340415181E-3</v>
+      </c>
+      <c r="M6">
+        <v>1.4186520316749601E-4</v>
+      </c>
+      <c r="N6">
+        <v>9.432669256860416E-4</v>
+      </c>
+      <c r="O6">
+        <v>1.4592557571031981E-3</v>
+      </c>
+      <c r="P6">
+        <v>1.7804369739562449E-3</v>
+      </c>
+      <c r="Q6">
+        <v>1.968796991033681E-3</v>
+      </c>
+      <c r="R6">
+        <v>2.066778673269922E-3</v>
+      </c>
+      <c r="S6">
+        <v>2.1034604642792298E-3</v>
+      </c>
+      <c r="T6">
+        <v>2.098772193030268E-3</v>
+      </c>
+      <c r="U6">
+        <v>2.066375778586605E-3</v>
+      </c>
+      <c r="V6">
+        <v>2.015635981921522E-3</v>
+      </c>
+      <c r="W6">
+        <v>1.952969911100164E-3</v>
+      </c>
+      <c r="X6">
+        <v>1.882771824674E-3</v>
+      </c>
+      <c r="Y6">
+        <v>1.8080472916833679E-3</v>
+      </c>
+      <c r="Z6">
+        <v>1.7308482817948491E-3</v>
+      </c>
+      <c r="AA6">
+        <v>1.6525718113839329E-3</v>
+      </c>
+      <c r="AB6">
+        <v>1.574165015007837E-3</v>
+      </c>
+      <c r="AC6">
+        <v>1.496266010351554E-3</v>
+      </c>
+      <c r="AD6">
+        <v>1.419300688553077E-3</v>
+      </c>
+      <c r="AE6">
+        <v>1.34354923784972E-3</v>
+      </c>
+      <c r="AF6">
+        <v>1.2691918755406231E-3</v>
+      </c>
+      <c r="AG6">
+        <v>1.1963402926679931E-3</v>
+      </c>
+      <c r="AH6">
+        <v>1.125059278218487E-3</v>
+      </c>
+      <c r="AI6">
+        <v>1.0553815913798979E-3</v>
+      </c>
+      <c r="AJ6">
+        <v>9.8731819047315596E-4</v>
+      </c>
+      <c r="AK6">
+        <v>9.2086526793306082E-4</v>
+      </c>
+      <c r="AL6">
+        <v>8.5600908790309238E-4</v>
+      </c>
+      <c r="AM6">
+        <v>7.927293117598207E-4</v>
+      </c>
+      <c r="AN6">
+        <v>7.3100128299275098E-4</v>
+      </c>
+      <c r="AO6">
+        <v>6.7079759582713014E-4</v>
+      </c>
+      <c r="AP6">
+        <v>6.1208917076165906E-4</v>
+      </c>
+      <c r="AQ6">
+        <v>5.5484599070864619E-4</v>
+      </c>
+      <c r="AR6">
+        <v>4.9903760348088497E-4</v>
+      </c>
+      <c r="AS6">
+        <v>4.4463346345138761E-4</v>
+      </c>
+      <c r="AT6">
+        <v>3.9160316255484971E-4</v>
+      </c>
+      <c r="AU6">
+        <v>3.3991658516035919E-4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>0.1563817597001417</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.1244478547049852</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08935030123367792</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.06147677562730822</v>
+      <c r="B7">
+        <v>0.12444785470498521</v>
+      </c>
+      <c r="C7">
+        <v>8.9368855852640636E-2</v>
+      </c>
+      <c r="D7">
+        <v>6.1525056778643568E-2</v>
+      </c>
+      <c r="E7">
+        <v>4.1753112736011212E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.814077563383131E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.8865639413382221E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.257558104361413E-2</v>
+      </c>
+      <c r="I7">
+        <v>8.3254719698698087E-3</v>
+      </c>
+      <c r="J7">
+        <v>5.4664147382059002E-3</v>
+      </c>
+      <c r="K7">
+        <v>3.5554565413203152E-3</v>
+      </c>
+      <c r="L7">
+        <v>2.2907011703145281E-3</v>
+      </c>
+      <c r="M7">
+        <v>1.4663790821676131E-3</v>
+      </c>
+      <c r="N7">
+        <v>9.4214518096676623E-4</v>
+      </c>
+      <c r="O7">
+        <v>6.2219661953727748E-4</v>
+      </c>
+      <c r="P7">
+        <v>4.41084626810672E-4</v>
+      </c>
+      <c r="Q7">
+        <v>3.5406902883883251E-4</v>
+      </c>
+      <c r="R7">
+        <v>3.3055297924906521E-4</v>
+      </c>
+      <c r="S7">
+        <v>3.4960806056366411E-4</v>
+      </c>
+      <c r="T7">
+        <v>3.969201938533742E-4</v>
+      </c>
+      <c r="U7">
+        <v>4.6270288591352272E-4</v>
+      </c>
+      <c r="V7">
+        <v>5.4027010611702427E-4</v>
+      </c>
+      <c r="W7">
+        <v>6.2505957114988386E-4</v>
+      </c>
+      <c r="X7">
+        <v>7.1396391542424343E-4</v>
+      </c>
+      <c r="Y7">
+        <v>8.0487250663944826E-4</v>
+      </c>
+      <c r="Z7">
+        <v>8.9635747480876606E-4</v>
+      </c>
+      <c r="AA7">
+        <v>9.8745852391801279E-4</v>
+      </c>
+      <c r="AB7">
+        <v>1.077535432463999E-3</v>
+      </c>
+      <c r="AC7">
+        <v>1.166166948615153E-3</v>
+      </c>
+      <c r="AD7">
+        <v>1.253081490218158E-3</v>
+      </c>
+      <c r="AE7">
+        <v>1.338109650034139E-3</v>
+      </c>
+      <c r="AF7">
+        <v>1.4211516510641189E-3</v>
+      </c>
+      <c r="AG7">
+        <v>1.5021550517032741E-3</v>
+      </c>
+      <c r="AH7">
+        <v>1.5810994777340219E-3</v>
+      </c>
+      <c r="AI7">
+        <v>1.6579861710274231E-3</v>
+      </c>
+      <c r="AJ7">
+        <v>1.7328308394325301E-3</v>
+      </c>
+      <c r="AK7">
+        <v>1.8056587686939721E-3</v>
+      </c>
+      <c r="AL7">
+        <v>1.876501483932654E-3</v>
+      </c>
+      <c r="AM7">
+        <v>1.9453944723044341E-3</v>
+      </c>
+      <c r="AN7">
+        <v>2.0123756320948221E-3</v>
+      </c>
+      <c r="AO7">
+        <v>2.0774842188708222E-3</v>
+      </c>
+      <c r="AP7">
+        <v>2.1407601315667989E-3</v>
+      </c>
+      <c r="AQ7">
+        <v>2.2022434308939238E-3</v>
+      </c>
+      <c r="AR7">
+        <v>2.2619740164000961E-3</v>
+      </c>
+      <c r="AS7">
+        <v>2.3199914117770161E-3</v>
+      </c>
+      <c r="AT7">
+        <v>2.3763346239329469E-3</v>
+      </c>
+      <c r="AU7">
+        <v>2.4310420522605158E-3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.01556130359946931</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.02335210372001926</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02097862302107517</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.01298775116773568</v>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1.556130359946931E-2</v>
+      </c>
+      <c r="B8">
+        <v>2.3352103720019259E-2</v>
+      </c>
+      <c r="C8">
+        <v>2.1006882099275748E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.307629300820101E-2</v>
+      </c>
+      <c r="E8">
+        <v>7.6681844040153626E-3</v>
+      </c>
+      <c r="F8">
+        <v>4.4474400272584841E-3</v>
+      </c>
+      <c r="G8">
+        <v>2.5545551330744039E-3</v>
+      </c>
+      <c r="H8">
+        <v>1.420452546842339E-3</v>
+      </c>
+      <c r="I8">
+        <v>7.2029636939809798E-4</v>
+      </c>
+      <c r="J8">
+        <v>2.7343041645922189E-4</v>
+      </c>
+      <c r="K8">
+        <v>-2.1651896482478611E-5</v>
+      </c>
+      <c r="L8">
+        <v>-2.2334285053397679E-4</v>
+      </c>
+      <c r="M8">
+        <v>-3.661665257871481E-4</v>
+      </c>
+      <c r="N8">
+        <v>-4.7108836362649202E-4</v>
+      </c>
+      <c r="O8">
+        <v>-5.5114832481224167E-4</v>
+      </c>
+      <c r="P8">
+        <v>-6.1462328883439804E-4</v>
+      </c>
+      <c r="Q8">
+        <v>-6.6685503545844754E-4</v>
+      </c>
+      <c r="R8">
+        <v>-7.1133739638722408E-4</v>
+      </c>
+      <c r="S8">
+        <v>-7.5037987624004734E-4</v>
+      </c>
+      <c r="T8">
+        <v>-7.8552206824162858E-4</v>
+      </c>
+      <c r="U8">
+        <v>-8.1779745672485736E-4</v>
+      </c>
+      <c r="V8">
+        <v>-8.4790399275910561E-4</v>
+      </c>
+      <c r="W8">
+        <v>-8.763157669079201E-4</v>
+      </c>
+      <c r="X8">
+        <v>-9.0335682443036189E-4</v>
+      </c>
+      <c r="Y8">
+        <v>-9.2925031065846332E-4</v>
+      </c>
+      <c r="Z8">
+        <v>-9.5415136475082902E-4</v>
+      </c>
+      <c r="AA8">
+        <v>-9.7816921797084133E-4</v>
+      </c>
+      <c r="AB8">
+        <v>-1.001382076176991E-3</v>
+      </c>
+      <c r="AC8">
+        <v>-1.023847157568204E-3</v>
+      </c>
+      <c r="AD8">
+        <v>-1.045607467520822E-3</v>
+      </c>
+      <c r="AE8">
+        <v>-1.0666963714898081E-3</v>
+      </c>
+      <c r="AF8">
+        <v>-1.0871406803075209E-3</v>
+      </c>
+      <c r="AG8">
+        <v>-1.1069627300621561E-3</v>
+      </c>
+      <c r="AH8">
+        <v>-1.1261817825610389E-3</v>
+      </c>
+      <c r="AI8">
+        <v>-1.1448149669863841E-3</v>
+      </c>
+      <c r="AJ8">
+        <v>-1.162877912046463E-3</v>
+      </c>
+      <c r="AK8">
+        <v>-1.18038516965287E-3</v>
+      </c>
+      <c r="AL8">
+        <v>-1.197350498417873E-3</v>
+      </c>
+      <c r="AM8">
+        <v>-1.213787053115824E-3</v>
+      </c>
+      <c r="AN8">
+        <v>-1.2297075112106381E-3</v>
+      </c>
+      <c r="AO8">
+        <v>-1.245124157395373E-3</v>
+      </c>
+      <c r="AP8">
+        <v>-1.260048940209737E-3</v>
+      </c>
+      <c r="AQ8">
+        <v>-1.2744935101615131E-3</v>
+      </c>
+      <c r="AR8">
+        <v>-1.288469245648335E-3</v>
+      </c>
+      <c r="AS8">
+        <v>-1.3019872708765711E-3</v>
+      </c>
+      <c r="AT8">
+        <v>-1.3150584685521459E-3</v>
+      </c>
+      <c r="AU8">
+        <v>-1.327693489185036E-3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.2522882170317564</v>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.25228821703175641</v>
+      </c>
+      <c r="B9">
         <v>0.1249937060956597</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.0700097049510997</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.04115691605985411</v>
+      <c r="C9">
+        <v>6.9990415156199484E-2</v>
+      </c>
+      <c r="D9">
+        <v>4.1108710165398528E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.443920444232597E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.4283590287654489E-2</v>
+      </c>
+      <c r="G9">
+        <v>7.88027886078322E-3</v>
+      </c>
+      <c r="H9">
+        <v>3.759908163427693E-3</v>
+      </c>
+      <c r="I9">
+        <v>1.0829381921532259E-3</v>
+      </c>
+      <c r="J9">
+        <v>-6.5777374278934951E-4</v>
+      </c>
+      <c r="K9">
+        <v>-1.781185903342806E-3</v>
+      </c>
+      <c r="L9">
+        <v>-2.4934756101983521E-3</v>
+      </c>
+      <c r="M9">
+        <v>-2.93034155450622E-3</v>
+      </c>
+      <c r="N9">
+        <v>-3.182152275690841E-3</v>
+      </c>
+      <c r="O9">
+        <v>-3.3095548580932758E-3</v>
+      </c>
+      <c r="P9">
+        <v>-3.3534583200708831E-3</v>
+      </c>
+      <c r="Q9">
+        <v>-3.3415506271372228E-3</v>
+      </c>
+      <c r="R9">
+        <v>-3.2926119536091248E-3</v>
+      </c>
+      <c r="S9">
+        <v>-3.2193963749913468E-3</v>
+      </c>
+      <c r="T9">
+        <v>-3.130569715108627E-3</v>
+      </c>
+      <c r="U9">
+        <v>-3.0320186785569888E-3</v>
+      </c>
+      <c r="V9">
+        <v>-2.9277381471155481E-3</v>
+      </c>
+      <c r="W9">
+        <v>-2.820433984546674E-3</v>
+      </c>
+      <c r="X9">
+        <v>-2.7119332628776621E-3</v>
+      </c>
+      <c r="Y9">
+        <v>-2.6034637753517618E-3</v>
+      </c>
+      <c r="Z9">
+        <v>-2.4958446516794692E-3</v>
+      </c>
+      <c r="AA9">
+        <v>-2.3896164266290691E-3</v>
+      </c>
+      <c r="AB9">
+        <v>-2.2851298278313368E-3</v>
+      </c>
+      <c r="AC9">
+        <v>-2.182606396886545E-3</v>
+      </c>
+      <c r="AD9">
+        <v>-2.0821798815544852E-3</v>
+      </c>
+      <c r="AE9">
+        <v>-1.983924496029175E-3</v>
+      </c>
+      <c r="AF9">
+        <v>-1.887874211214585E-3</v>
+      </c>
+      <c r="AG9">
+        <v>-1.794035917293484E-3</v>
+      </c>
+      <c r="AH9">
+        <v>-1.702398400315741E-3</v>
+      </c>
+      <c r="AI9">
+        <v>-1.6129384595369571E-3</v>
+      </c>
+      <c r="AJ9">
+        <v>-1.525625072118098E-3</v>
+      </c>
+      <c r="AK9">
+        <v>-1.4404222247041819E-3</v>
+      </c>
+      <c r="AL9">
+        <v>-1.357290835198831E-3</v>
+      </c>
+      <c r="AM9">
+        <v>-1.276190053925172E-3</v>
+      </c>
+      <c r="AN9">
+        <v>-1.1970781417145269E-3</v>
+      </c>
+      <c r="AO9">
+        <v>-1.1199130597898911E-3</v>
+      </c>
+      <c r="AP9">
+        <v>-1.0446528635211221E-3</v>
+      </c>
+      <c r="AQ9">
+        <v>-9.7125596285569163E-4</v>
+      </c>
+      <c r="AR9">
+        <v>-8.9968129226873975E-4</v>
+      </c>
+      <c r="AS9">
+        <v>-8.2988841940288978E-4</v>
+      </c>
+      <c r="AT9">
+        <v>-7.6183761228973412E-4</v>
+      </c>
+      <c r="AU9">
+        <v>-6.9548987865444573E-4</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-0.05679192801912222</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.0251634781899644</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.003328234616859933</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.002466174407918343</v>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-5.6791928019122223E-2</v>
+      </c>
+      <c r="B10">
+        <v>-2.5163478189964401E-2</v>
+      </c>
+      <c r="C10">
+        <v>-3.3415522876216529E-3</v>
+      </c>
+      <c r="D10">
+        <v>2.4270558777960412E-3</v>
+      </c>
+      <c r="E10">
+        <v>3.342433119964927E-3</v>
+      </c>
+      <c r="F10">
+        <v>2.8756002451522291E-3</v>
+      </c>
+      <c r="G10">
+        <v>2.1687060705885769E-3</v>
+      </c>
+      <c r="H10">
+        <v>1.5604977127945329E-3</v>
+      </c>
+      <c r="I10">
+        <v>1.117812668439461E-3</v>
+      </c>
+      <c r="J10">
+        <v>8.2485727465376969E-4</v>
+      </c>
+      <c r="K10">
+        <v>6.4781570351993951E-4</v>
+      </c>
+      <c r="L10">
+        <v>5.5486142568066956E-4</v>
+      </c>
+      <c r="M10">
+        <v>5.208858755479949E-4</v>
+      </c>
+      <c r="N10">
+        <v>5.2740812941766684E-4</v>
+      </c>
+      <c r="O10">
+        <v>5.6126686855424409E-4</v>
+      </c>
+      <c r="P10">
+        <v>6.1325077487897248E-4</v>
+      </c>
+      <c r="Q10">
+        <v>6.7697693265826695E-4</v>
+      </c>
+      <c r="R10">
+        <v>7.4805002573503205E-4</v>
+      </c>
+      <c r="S10">
+        <v>8.2345713041509256E-4</v>
+      </c>
+      <c r="T10">
+        <v>9.0114111178590307E-4</v>
+      </c>
+      <c r="U10">
+        <v>9.7970335747955026E-4</v>
+      </c>
+      <c r="V10">
+        <v>1.058197998550083E-3</v>
+      </c>
+      <c r="W10">
+        <v>1.1359900114429619E-3</v>
+      </c>
+      <c r="X10">
+        <v>1.212657593024848E-3</v>
+      </c>
+      <c r="Y10">
+        <v>1.287925083599837E-3</v>
+      </c>
+      <c r="Z10">
+        <v>1.361616912019992E-3</v>
+      </c>
+      <c r="AA10">
+        <v>1.4336259849016639E-3</v>
+      </c>
+      <c r="AB10">
+        <v>1.503891991687168E-3</v>
+      </c>
+      <c r="AC10">
+        <v>1.5723865140695561E-3</v>
+      </c>
+      <c r="AD10">
+        <v>1.639102804137732E-3</v>
+      </c>
+      <c r="AE10">
+        <v>1.704048766223413E-3</v>
+      </c>
+      <c r="AF10">
+        <v>1.7672421376722001E-3</v>
+      </c>
+      <c r="AG10">
+        <v>1.828707179414318E-3</v>
+      </c>
+      <c r="AH10">
+        <v>1.8884724035832931E-3</v>
+      </c>
+      <c r="AI10">
+        <v>1.9465690137952249E-3</v>
+      </c>
+      <c r="AJ10">
+        <v>2.003029835378348E-3</v>
+      </c>
+      <c r="AK10">
+        <v>2.0578885826011148E-3</v>
+      </c>
+      <c r="AL10">
+        <v>2.1111793577956398E-3</v>
+      </c>
+      <c r="AM10">
+        <v>2.162936310114306E-3</v>
+      </c>
+      <c r="AN10">
+        <v>2.213193404197037E-3</v>
+      </c>
+      <c r="AO10">
+        <v>2.2619842645479871E-3</v>
+      </c>
+      <c r="AP10">
+        <v>2.3093420720395452E-3</v>
+      </c>
+      <c r="AQ10">
+        <v>2.3552994963189568E-3</v>
+      </c>
+      <c r="AR10">
+        <v>2.3998886529220469E-3</v>
+      </c>
+      <c r="AS10">
+        <v>2.44314107736485E-3</v>
+      </c>
+      <c r="AT10">
+        <v>2.4850877108977942E-3</v>
+      </c>
+      <c r="AU10">
+        <v>2.5257588942386952E-3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>-0.1034327526870535</v>
       </c>
-      <c r="B11" t="n">
-        <v>-0.02195033540714246</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.005594415308375195</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.000941128893405988</v>
+      <c r="B11">
+        <v>-2.195033540714246E-2</v>
+      </c>
+      <c r="C11">
+        <v>-5.5974386212549578E-3</v>
+      </c>
+      <c r="D11">
+        <v>-9.5072290327680598E-4</v>
+      </c>
+      <c r="E11">
+        <v>3.9743425567296669E-5</v>
+      </c>
+      <c r="F11">
+        <v>1.1030047140260711E-4</v>
+      </c>
+      <c r="G11">
+        <v>7.3488727419920223E-6</v>
+      </c>
+      <c r="H11">
+        <v>-9.262604453682852E-5</v>
+      </c>
+      <c r="I11">
+        <v>-1.5916767406886259E-4</v>
+      </c>
+      <c r="J11">
+        <v>-1.9493445828411369E-4</v>
+      </c>
+      <c r="K11">
+        <v>-2.077939077783464E-4</v>
+      </c>
+      <c r="L11">
+        <v>-2.0470686142771979E-4</v>
+      </c>
+      <c r="M11">
+        <v>-1.908646030858859E-4</v>
+      </c>
+      <c r="N11">
+        <v>-1.6994152181302671E-4</v>
+      </c>
+      <c r="O11">
+        <v>-1.4448544320903441E-4</v>
+      </c>
+      <c r="P11">
+        <v>-1.162442216074786E-4</v>
+      </c>
+      <c r="Q11">
+        <v>-8.6407606628679135E-5</v>
+      </c>
+      <c r="R11">
+        <v>-5.5779464583515453E-5</v>
+      </c>
+      <c r="S11">
+        <v>-2.489846122194774E-5</v>
+      </c>
+      <c r="T11">
+        <v>5.878085347226777E-6</v>
+      </c>
+      <c r="U11">
+        <v>3.631628038653728E-5</v>
+      </c>
+      <c r="V11">
+        <v>6.6265830081229261E-5</v>
+      </c>
+      <c r="W11">
+        <v>9.5632781806758528E-5</v>
+      </c>
+      <c r="X11">
+        <v>1.2436094059388859E-4</v>
+      </c>
+      <c r="Y11">
+        <v>1.5241925192422681E-4</v>
+      </c>
+      <c r="Z11">
+        <v>1.797932710702807E-4</v>
+      </c>
+      <c r="AA11">
+        <v>2.064794208182598E-4</v>
+      </c>
+      <c r="AB11">
+        <v>2.324811446583467E-4</v>
+      </c>
+      <c r="AC11">
+        <v>2.5780634352817961E-4</v>
+      </c>
+      <c r="AD11">
+        <v>2.8246567826747211E-4</v>
+      </c>
+      <c r="AE11">
+        <v>3.0647145345011291E-4</v>
+      </c>
+      <c r="AF11">
+        <v>3.2983688981021338E-4</v>
+      </c>
+      <c r="AG11">
+        <v>3.5257565502684021E-4</v>
+      </c>
+      <c r="AH11">
+        <v>3.7470156524607972E-4</v>
+      </c>
+      <c r="AI11">
+        <v>3.9622839863346081E-4</v>
+      </c>
+      <c r="AJ11">
+        <v>4.171697818330369E-4</v>
+      </c>
+      <c r="AK11">
+        <v>4.3753912337733561E-4</v>
+      </c>
+      <c r="AL11">
+        <v>4.5734957695870468E-4</v>
+      </c>
+      <c r="AM11">
+        <v>4.7661402338343141E-4</v>
+      </c>
+      <c r="AN11">
+        <v>4.9534506395943856E-4</v>
+      </c>
+      <c r="AO11">
+        <v>5.1355502067542411E-4</v>
+      </c>
+      <c r="AP11">
+        <v>5.3125594023029521E-4</v>
+      </c>
+      <c r="AQ11">
+        <v>5.4845960008785555E-4</v>
+      </c>
+      <c r="AR11">
+        <v>5.6517751544299193E-4</v>
+      </c>
+      <c r="AS11">
+        <v>5.8142094645705371E-4</v>
+      </c>
+      <c r="AT11">
+        <v>5.9720090538650913E-4</v>
+      </c>
+      <c r="AU11">
+        <v>6.1252816342789295E-4</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.03200281093632498</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.009724221857102243</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001121368360802872</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0005738056729837894</v>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3.2002810936324982E-2</v>
+      </c>
+      <c r="B12">
+        <v>9.7242218571022433E-3</v>
+      </c>
+      <c r="C12">
+        <v>1.122752035029835E-3</v>
+      </c>
+      <c r="D12">
+        <v>5.7763721212821277E-4</v>
+      </c>
+      <c r="E12">
+        <v>3.671145358724208E-4</v>
+      </c>
+      <c r="F12">
+        <v>2.5318693697328842E-4</v>
+      </c>
+      <c r="G12">
+        <v>1.8203008768982051E-4</v>
+      </c>
+      <c r="H12">
+        <v>1.3467099169497661E-4</v>
+      </c>
+      <c r="I12">
+        <v>1.02046575837604E-4</v>
+      </c>
+      <c r="J12">
+        <v>7.9034536823699997E-5</v>
+      </c>
+      <c r="K12">
+        <v>6.2467169168539416E-5</v>
+      </c>
+      <c r="L12">
+        <v>5.0288324027158942E-5</v>
+      </c>
+      <c r="M12">
+        <v>4.1127777934700518E-5</v>
+      </c>
+      <c r="N12">
+        <v>3.4058925288109999E-5</v>
+      </c>
+      <c r="O12">
+        <v>2.8449750338982839E-5</v>
+      </c>
+      <c r="P12">
+        <v>2.3866810761910562E-5</v>
+      </c>
+      <c r="Q12">
+        <v>2.0011690565546219E-5</v>
+      </c>
+      <c r="R12">
+        <v>1.6678287397874689E-5</v>
+      </c>
+      <c r="S12">
+        <v>1.372384148239222E-5</v>
+      </c>
+      <c r="T12">
+        <v>1.1049174586819481E-5</v>
+      </c>
+      <c r="U12">
+        <v>8.5851606802996219E-6</v>
+      </c>
+      <c r="V12">
+        <v>6.283437857911506E-6</v>
+      </c>
+      <c r="W12">
+        <v>4.1100180639443787E-6</v>
+      </c>
+      <c r="X12">
+        <v>2.0408822035660799E-6</v>
+      </c>
+      <c r="Y12">
+        <v>5.8938552651885508E-8</v>
+      </c>
+      <c r="Z12">
+        <v>-1.8480809932827391E-6</v>
+      </c>
+      <c r="AA12">
+        <v>-3.6890783594127438E-6</v>
+      </c>
+      <c r="AB12">
+        <v>-5.4706006475202638E-6</v>
+      </c>
+      <c r="AC12">
+        <v>-7.1975430915403323E-6</v>
+      </c>
+      <c r="AD12">
+        <v>-8.8736384764957653E-6</v>
+      </c>
+      <c r="AE12">
+        <v>-1.050179847938708E-5</v>
+      </c>
+      <c r="AF12">
+        <v>-1.208435214997609E-5</v>
+      </c>
+      <c r="AG12">
+        <v>-1.362321284295585E-5</v>
+      </c>
+      <c r="AH12">
+        <v>-1.511999528934594E-5</v>
+      </c>
+      <c r="AI12">
+        <v>-1.6576097873616091E-5</v>
+      </c>
+      <c r="AJ12">
+        <v>-1.79927605874896E-5</v>
+      </c>
+      <c r="AK12">
+        <v>-1.9371105945840559E-5</v>
+      </c>
+      <c r="AL12">
+        <v>-2.0712167959131569E-5</v>
+      </c>
+      <c r="AM12">
+        <v>-2.2016912712760389E-5</v>
+      </c>
+      <c r="AN12">
+        <v>-2.3286253028660829E-5</v>
+      </c>
+      <c r="AO12">
+        <v>-2.4521058973870818E-5</v>
+      </c>
+      <c r="AP12">
+        <v>-2.572216541034646E-5</v>
+      </c>
+      <c r="AQ12">
+        <v>-2.689037746912029E-5</v>
+      </c>
+      <c r="AR12">
+        <v>-2.8026474548079349E-5</v>
+      </c>
+      <c r="AS12">
+        <v>-2.9131213248319261E-5</v>
+      </c>
+      <c r="AT12">
+        <v>-3.0205329572398489E-5</v>
+      </c>
+      <c r="AU12">
+        <v>-3.1249540578547188E-5</v>
       </c>
     </row>
   </sheetData>
